--- a/Results/all_method.xlsx
+++ b/Results/all_method.xlsx
@@ -468,7 +468,7 @@
         <v>0.7524534427332975</v>
       </c>
       <c r="G2">
-        <v>0.666</v>
+        <v>0.6660349919173967</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -491,7 +491,7 @@
         <v>0.811963687882295</v>
       </c>
       <c r="G3">
-        <v>0.6929999999999999</v>
+        <v>0.6934421981688424</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -514,7 +514,7 @@
         <v>0.7384785744057267</v>
       </c>
       <c r="G4">
-        <v>0.666</v>
+        <v>0.6661777826962578</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -537,7 +537,7 @@
         <v>0.7960657426316473</v>
       </c>
       <c r="G5">
-        <v>0.6909999999999999</v>
+        <v>0.6912005079792868</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -560,7 +560,7 @@
         <v>0.760891106330115</v>
       </c>
       <c r="G6">
-        <v>0.695</v>
+        <v>0.694585367343777</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -583,7 +583,7 @@
         <v>0.8173744061962391</v>
       </c>
       <c r="G7">
-        <v>0.717</v>
+        <v>0.7174702162178278</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -606,7 +606,7 @@
         <v>0.7613577354070838</v>
       </c>
       <c r="G8">
-        <v>0.755</v>
+        <v>0.7547297201486823</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -629,7 +629,7 @@
         <v>0.8216558489577075</v>
       </c>
       <c r="G9">
-        <v>0.783</v>
+        <v>0.7832334880976155</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -652,7 +652,7 @@
         <v>0.7640339846011711</v>
       </c>
       <c r="G10">
-        <v>0.6889999999999999</v>
+        <v>0.6891031228585224</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -675,7 +675,7 @@
         <v>0.8213705702543557</v>
       </c>
       <c r="G11">
-        <v>0.719</v>
+        <v>0.7194724677582001</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -698,7 +698,7 @@
         <v>0.7599129454181793</v>
       </c>
       <c r="G12">
-        <v>0.698</v>
+        <v>0.6984218033913682</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -721,7 +721,7 @@
         <v>0.8086178401816086</v>
       </c>
       <c r="G13">
-        <v>0.718</v>
+        <v>0.7179670695832806</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -744,7 +744,7 @@
         <v>0.7511055703535943</v>
       </c>
       <c r="G14">
-        <v>0.71</v>
+        <v>0.7101174047278545</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -767,7 +767,7 @@
         <v>0.7974740651358895</v>
       </c>
       <c r="G15">
-        <v>0.732</v>
+        <v>0.7319719673351394</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -790,7 +790,7 @@
         <v>0.7692749250322419</v>
       </c>
       <c r="G16">
-        <v>0.746</v>
+        <v>0.7459617214702674</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -813,7 +813,7 @@
         <v>0.8157883827345481</v>
       </c>
       <c r="G17">
-        <v>0.758</v>
+        <v>0.7580295137676898</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -836,7 +836,7 @@
         <v>0.7661390841587381</v>
       </c>
       <c r="G18">
-        <v>0.778</v>
+        <v>0.7775166243871904</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -859,7 +859,7 @@
         <v>0.8128886494833942</v>
       </c>
       <c r="G19">
-        <v>0.797</v>
+        <v>0.7967528714116124</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -882,7 +882,7 @@
         <v>0.7592840293652086</v>
       </c>
       <c r="G20">
-        <v>0.732</v>
+        <v>0.7319340949133728</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -905,7 +905,7 @@
         <v>0.802868211685772</v>
       </c>
       <c r="G21">
-        <v>0.753</v>
+        <v>0.7531723457511739</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -928,7 +928,7 @@
         <v>0.7262527634723747</v>
       </c>
       <c r="G22">
-        <v>0.6909999999999999</v>
+        <v>0.6905750786751029</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -951,7 +951,7 @@
         <v>0.7968834732880877</v>
       </c>
       <c r="G23">
-        <v>0.715</v>
+        <v>0.7146516476171993</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -974,7 +974,7 @@
         <v>0.7303318290340295</v>
       </c>
       <c r="G24">
-        <v>0.714</v>
+        <v>0.7135046074607784</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -997,7 +997,7 @@
         <v>0.803089470879473</v>
       </c>
       <c r="G25">
-        <v>0.744</v>
+        <v>0.7435493945499517</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1020,7 +1020,7 @@
         <v>0.735872416410763</v>
       </c>
       <c r="G26">
-        <v>0.729</v>
+        <v>0.7294010461199545</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1043,7 +1043,7 @@
         <v>0.8036954233546842</v>
       </c>
       <c r="G27">
-        <v>0.749</v>
+        <v>0.7485806748010632</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1066,7 +1066,7 @@
         <v>0.7387105737671856</v>
       </c>
       <c r="G28">
-        <v>0.766</v>
+        <v>0.7660003981036465</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1089,7 +1089,7 @@
         <v>0.8106972124222712</v>
       </c>
       <c r="G29">
-        <v>0.799</v>
+        <v>0.7994506317146496</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1112,7 +1112,7 @@
         <v>0.7356703326581557</v>
       </c>
       <c r="G30">
-        <v>0.724</v>
+        <v>0.7244360312146769</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1135,7 +1135,7 @@
         <v>0.8021874408437109</v>
       </c>
       <c r="G31">
-        <v>0.754</v>
+        <v>0.7535912821542237</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1158,7 +1158,7 @@
         <v>0.7109878105231662</v>
       </c>
       <c r="G32">
-        <v>0.695</v>
+        <v>0.6951440261585971</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1181,7 +1181,7 @@
         <v>0.7917871436403801</v>
       </c>
       <c r="G33">
-        <v>0.723</v>
+        <v>0.7233855553284534</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1204,7 +1204,7 @@
         <v>0.7077265823260269</v>
       </c>
       <c r="G34">
-        <v>0.703</v>
+        <v>0.7030094195409896</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1227,7 +1227,7 @@
         <v>0.7917726686899941</v>
       </c>
       <c r="G35">
-        <v>0.737</v>
+        <v>0.7366563770035479</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1250,7 +1250,7 @@
         <v>0.7064132460148269</v>
       </c>
       <c r="G36">
-        <v>0.694</v>
+        <v>0.6939267901571514</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1273,7 +1273,7 @@
         <v>0.7871480741006484</v>
       </c>
       <c r="G37">
-        <v>0.72</v>
+        <v>0.720014877866179</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1296,7 +1296,7 @@
         <v>0.7214672210933692</v>
       </c>
       <c r="G38">
-        <v>0.748</v>
+        <v>0.7477430496315873</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1319,7 +1319,7 @@
         <v>0.8059846103479943</v>
       </c>
       <c r="G39">
-        <v>0.781</v>
+        <v>0.7814730552807093</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1342,7 +1342,7 @@
         <v>0.7243142138784096</v>
       </c>
       <c r="G40">
-        <v>0.722</v>
+        <v>0.7218893316161495</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1365,7 +1365,7 @@
         <v>0.8097162290817493</v>
       </c>
       <c r="G41">
-        <v>0.753</v>
+        <v>0.7529035191100631</v>
       </c>
     </row>
   </sheetData>
